--- a/biology/Microbiologie/Chlamydia_psittaci/Chlamydia_psittaci.xlsx
+++ b/biology/Microbiologie/Chlamydia_psittaci/Chlamydia_psittaci.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlamydia psittaci est une espèce de bactéries de la famille des Chlamydiaceae. Elle provoque la psittacose (ou ornithose), maladie qui se transmet des oiseaux (et en particulier des psittaciformes, perroquet, etc.) à l'Homme.
 Chez les oiseaux, la bactérie atteint les divers épithéliums. Les oiseaux peuvent avoir des signes digestifs, respiratoires, rénaux et même neurologiques. Chez les humains elle prend souvent la forme d'une pneumonie.
@@ -512,9 +524,11 @@
           <t>Liste des non-classés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (15 décembre 2019)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (15 décembre 2019) :
 non-classé Chlamydia psittaci 01DC11
 non-classé Chlamydia psittaci 01DC12
 non-classé Chlamydia psittaci 02DC14
